--- a/rhla_analysis/rhla1_3_exp_result/k0.xlsx
+++ b/rhla_analysis/rhla1_3_exp_result/k0.xlsx
@@ -457,16 +457,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.03493131840081443</v>
+        <v>0.0349313184008146</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2490102386871613</v>
+        <v>0.2490102386871612</v>
       </c>
       <c r="C2" t="n">
         <v>0.03282182438192668</v>
       </c>
       <c r="D2" t="n">
-        <v>7.128566858826477</v>
+        <v>7.128566858826441</v>
       </c>
     </row>
     <row r="3">
@@ -480,12 +480,12 @@
         <v>0.05072463768115942</v>
       </c>
       <c r="D3" t="n">
-        <v>9.606099822691139</v>
+        <v>9.60609982269114</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.02636570910712423</v>
+        <v>0.02636570910712412</v>
       </c>
       <c r="B4" t="n">
         <v>0.1307907924489372</v>
@@ -494,12 +494,12 @@
         <v>0.02898550724637681</v>
       </c>
       <c r="D4" t="n">
-        <v>4.960640046415305</v>
+        <v>4.960640046415326</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0217269389248029</v>
+        <v>0.02172693892480281</v>
       </c>
       <c r="B5" t="n">
         <v>0.2088142894441693</v>
@@ -508,12 +508,12 @@
         <v>0.03793691389599318</v>
       </c>
       <c r="D5" t="n">
-        <v>9.610847168433491</v>
+        <v>9.61084716843353</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.01559830754231353</v>
+        <v>0.01559830754231364</v>
       </c>
       <c r="B6" t="n">
         <v>0.130826215121106</v>
@@ -522,12 +522,12 @@
         <v>0.0443307757885763</v>
       </c>
       <c r="D6" t="n">
-        <v>8.38720577640963</v>
+        <v>8.387205776409573</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.01660170582732279</v>
+        <v>0.01660170582732278</v>
       </c>
       <c r="B7" t="n">
         <v>0.1689960005510847</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.007635359900429746</v>
+        <v>0.007635359900429703</v>
       </c>
       <c r="B8" t="n">
         <v>0.09441062612976781</v>
@@ -550,12 +550,12 @@
         <v>0.04560954816709292</v>
       </c>
       <c r="D8" t="n">
-        <v>12.36492154409827</v>
+        <v>12.36492154409834</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.01437453242873874</v>
+        <v>0.01437453242873873</v>
       </c>
       <c r="B9" t="n">
         <v>0.1004574989484995</v>
@@ -564,12 +564,12 @@
         <v>0.04859335038363171</v>
       </c>
       <c r="D9" t="n">
-        <v>6.988575068198853</v>
+        <v>6.988575068198858</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.01256521568731951</v>
+        <v>0.01256521568731954</v>
       </c>
       <c r="B10" t="n">
         <v>0.1302494582451897</v>
@@ -578,12 +578,12 @@
         <v>0.04859335038363171</v>
       </c>
       <c r="D10" t="n">
-        <v>10.36587524531187</v>
+        <v>10.36587524531185</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.03881202050390998</v>
+        <v>0.03881202050390988</v>
       </c>
       <c r="B11" t="n">
         <v>0.1453958538196229</v>
@@ -592,7 +592,7 @@
         <v>0.04901960784313725</v>
       </c>
       <c r="D11" t="n">
-        <v>3.746155235720734</v>
+        <v>3.746155235720744</v>
       </c>
     </row>
   </sheetData>
